--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.033121-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Strathom.Spring.033121-2.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1117,12 +1117,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1839,12 +1839,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1991,12 +1991,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4131,12 +4131,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4853,12 +4853,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5119,12 +5119,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5271,12 +5271,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5347,12 +5347,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5385,12 +5385,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5423,12 +5423,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5537,12 +5537,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5575,12 +5575,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5803,12 +5803,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6221,12 +6221,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6259,12 +6259,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6377,12 +6377,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6491,12 +6491,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6909,12 +6909,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7403,12 +7403,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7479,12 +7479,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7897,12 +7897,12 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7973,12 +7973,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8505,12 +8505,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8961,12 +8961,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9189,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9455,12 +9455,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10101,12 +10101,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10139,12 +10139,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10177,12 +10177,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10291,12 +10291,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10485,12 +10485,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10523,12 +10523,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10675,12 +10675,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10903,12 +10903,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11359,12 +11359,12 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11397,12 +11397,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11435,12 +11435,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11473,12 +11473,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11777,12 +11777,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11929,12 +11929,12 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11967,12 +11967,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12005,12 +12005,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12233,12 +12233,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12347,12 +12347,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12385,12 +12385,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12993,12 +12993,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13183,12 +13183,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13411,12 +13411,12 @@
       </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13639,12 +13639,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13867,12 +13867,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13905,12 +13905,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14057,12 +14057,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14247,12 +14247,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14893,12 +14893,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15045,12 +15045,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15083,12 +15083,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15311,12 +15311,12 @@
       <c r="H391" t="inlineStr"/>
       <c r="I391" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15387,12 +15387,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15501,12 +15501,12 @@
       <c r="H396" t="inlineStr"/>
       <c r="I396" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15995,12 +15995,12 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16223,12 +16223,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16299,12 +16299,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16337,12 +16337,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16527,12 +16527,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17021,12 +17021,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17211,12 +17211,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17249,12 +17249,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17363,12 +17363,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17477,12 +17477,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17553,12 +17553,12 @@
       <c r="H450" t="inlineStr"/>
       <c r="I450" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17667,12 +17667,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17857,12 +17857,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17895,12 +17895,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18237,12 +18237,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -18427,12 +18427,12 @@
       <c r="H473" t="inlineStr"/>
       <c r="I473" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J473" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18465,12 +18465,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18503,12 +18503,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18617,12 +18617,12 @@
       <c r="H478" t="inlineStr"/>
       <c r="I478" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18693,12 +18693,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18731,12 +18731,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18769,12 +18769,12 @@
       <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18845,12 +18845,12 @@
       <c r="H484" t="inlineStr"/>
       <c r="I484" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J484" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18883,12 +18883,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -18997,12 +18997,12 @@
       <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19225,12 +19225,12 @@
       <c r="H494" t="inlineStr"/>
       <c r="I494" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19491,12 +19491,12 @@
       <c r="H501" t="inlineStr"/>
       <c r="I501" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19643,12 +19643,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19681,12 +19681,12 @@
       <c r="H506" t="inlineStr"/>
       <c r="I506" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J506" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19871,12 +19871,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20251,12 +20251,12 @@
       <c r="H521" t="inlineStr"/>
       <c r="I521" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J521" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20783,12 +20783,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21239,12 +21239,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21543,12 +21543,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21619,12 +21619,12 @@
       <c r="H557" t="inlineStr"/>
       <c r="I557" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J557" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21657,12 +21657,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21809,12 +21809,12 @@
       <c r="H562" t="inlineStr"/>
       <c r="I562" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J562" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
